--- a/app/outputs/history.xlsx
+++ b/app/outputs/history.xlsx
@@ -83,6 +83,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -375,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A2:A4"/>
@@ -426,24 +494,90 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>The Kamath Family Foundation</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>AHSA Platform</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>2021-02-10 13:45:26.730762</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Twilio.org</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>2021-03-22 13:24:24.449210</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Firefly Innovations</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Amplify Her Voice</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>2021-03-22 13:24:49.881213</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Firefly Innovations</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maziwa Breast Pump</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2021-03-22 13:25:04.167964</t>
         </is>
       </c>
     </row>
